--- a/Dat/Historial.xlsx
+++ b/Dat/Historial.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotace\Desktop\HealthApp\Dat\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7B1B25-C3A2-4B40-82CF-10F91E805D19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="UsrAl" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>Fecha</t>
   </si>
@@ -58,6 +52,9 @@
     <t>2019-06-19</t>
   </si>
   <si>
+    <t>2019-06-21</t>
+  </si>
+  <si>
     <t>leche de soja con copos de maiz</t>
   </si>
   <si>
@@ -67,16 +64,22 @@
     <t>yogurt griego con muesli</t>
   </si>
   <si>
+    <t>yogurt griego</t>
+  </si>
+  <si>
     <t>leche con avena</t>
   </si>
   <si>
+    <t>Tortilla francesa(2 huevos)</t>
+  </si>
+  <si>
     <t>Manzana Asada</t>
   </si>
   <si>
     <t>tostada de atun (50 gr)</t>
   </si>
   <si>
-    <t>Tortilla francesa(2 huevos)</t>
+    <t>platano</t>
   </si>
   <si>
     <t>150 gr de pasta + 100 gr lomo de ternera + platano</t>
@@ -85,7 +88,10 @@
     <t>150 gr pure de patata + 1 salchicha frankfurt + yogurt</t>
   </si>
   <si>
-    <t>platano</t>
+    <t>150 gramos pure de patata + 100 gramos pollo frito + manzana</t>
+  </si>
+  <si>
+    <t>manzana</t>
   </si>
   <si>
     <t>Ensalada de atún</t>
@@ -94,8 +100,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,14 +111,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -155,31 +153,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -221,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,27 +242,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,24 +276,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -498,24 +451,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -546,22 +489,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -569,22 +512,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -592,22 +535,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -615,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -638,13 +581,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -653,8 +596,53 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>